--- a/data/pca/factorExposure/factorExposure_2012-10-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-09.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001631369435294864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001872065815523718</v>
+      </c>
+      <c r="C2">
+        <v>0.02824793816235062</v>
+      </c>
+      <c r="D2">
+        <v>0.005545299971674732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>5.27893941644874e-06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007028921982222294</v>
+      </c>
+      <c r="C4">
+        <v>0.08263811192901627</v>
+      </c>
+      <c r="D4">
+        <v>0.07226547404386131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.000372936884719436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01406885361133915</v>
+      </c>
+      <c r="C6">
+        <v>0.1131983627168035</v>
+      </c>
+      <c r="D6">
+        <v>0.02559885672547085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0003654314867200817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005053636811846081</v>
+      </c>
+      <c r="C7">
+        <v>0.05799516844192189</v>
+      </c>
+      <c r="D7">
+        <v>0.0337995910503295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.000468230086215758</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006048539069815192</v>
+      </c>
+      <c r="C8">
+        <v>0.03569439011003718</v>
+      </c>
+      <c r="D8">
+        <v>0.03943629931613629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.002280265789797117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005256911950053921</v>
+      </c>
+      <c r="C9">
+        <v>0.07029156258158768</v>
+      </c>
+      <c r="D9">
+        <v>0.07658556603885598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002267607578945101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005822265917384523</v>
+      </c>
+      <c r="C10">
+        <v>0.05681312589452938</v>
+      </c>
+      <c r="D10">
+        <v>-0.1950029538892799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002982245452633112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005671006047686511</v>
+      </c>
+      <c r="C11">
+        <v>0.07911296102841747</v>
+      </c>
+      <c r="D11">
+        <v>0.0649658282285899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.00144774909473498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.00414317611129795</v>
+      </c>
+      <c r="C12">
+        <v>0.06431658128958739</v>
+      </c>
+      <c r="D12">
+        <v>0.05182334028527272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002998252091039633</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008374593865747642</v>
+      </c>
+      <c r="C13">
+        <v>0.06690177595416634</v>
+      </c>
+      <c r="D13">
+        <v>0.06317797672508946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001813449354459759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007599718360579075</v>
+      </c>
+      <c r="C14">
+        <v>0.04251097936800697</v>
+      </c>
+      <c r="D14">
+        <v>0.01121297096222318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0001565871314254919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005963297595634409</v>
+      </c>
+      <c r="C15">
+        <v>0.04060058649448359</v>
+      </c>
+      <c r="D15">
+        <v>0.02831129519998968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0006125589121764964</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005051668076937256</v>
+      </c>
+      <c r="C16">
+        <v>0.06402984649293585</v>
+      </c>
+      <c r="D16">
+        <v>0.05788861121609402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0007565051187872366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.00897465207359642</v>
+      </c>
+      <c r="C20">
+        <v>0.0634602892292952</v>
+      </c>
+      <c r="D20">
+        <v>0.05044841401935768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00598944271248484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009247854217398328</v>
+      </c>
+      <c r="C21">
+        <v>0.01922335295759075</v>
+      </c>
+      <c r="D21">
+        <v>0.04311927441460842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02293801133640242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006738592989741479</v>
+      </c>
+      <c r="C22">
+        <v>0.08622343409970382</v>
+      </c>
+      <c r="D22">
+        <v>0.124684711421837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02272367584859623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006551265165444197</v>
+      </c>
+      <c r="C23">
+        <v>0.08667637423158239</v>
+      </c>
+      <c r="D23">
+        <v>0.1255969433000242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002396147832141824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005642623049584307</v>
+      </c>
+      <c r="C24">
+        <v>0.07563265119909478</v>
+      </c>
+      <c r="D24">
+        <v>0.06878168313080166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004195320371322515</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003214409199086781</v>
+      </c>
+      <c r="C25">
+        <v>0.07789989529192468</v>
+      </c>
+      <c r="D25">
+        <v>0.06673706360010964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003364384128837063</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003631566284069829</v>
+      </c>
+      <c r="C26">
+        <v>0.0386018106192572</v>
+      </c>
+      <c r="D26">
+        <v>0.02577312504203487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007286405881981957</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001296864820212886</v>
+      </c>
+      <c r="C28">
+        <v>0.1047196877917964</v>
+      </c>
+      <c r="D28">
+        <v>-0.3227303026820713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009268242016562561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002631809925382728</v>
+      </c>
+      <c r="C29">
+        <v>0.04824329464063441</v>
+      </c>
+      <c r="D29">
+        <v>0.0101419434082535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005294140909886499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009846365996011082</v>
+      </c>
+      <c r="C30">
+        <v>0.1412775813231225</v>
+      </c>
+      <c r="D30">
+        <v>0.1082306767538729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001429006224659099</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006396586933233666</v>
+      </c>
+      <c r="C31">
+        <v>0.04347186682481013</v>
+      </c>
+      <c r="D31">
+        <v>0.03261592799037953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001962894147043892</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003460962351133844</v>
+      </c>
+      <c r="C32">
+        <v>0.03913018237285969</v>
+      </c>
+      <c r="D32">
+        <v>0.02554470608498667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001393157910353966</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009126042495613622</v>
+      </c>
+      <c r="C33">
+        <v>0.08784610159524177</v>
+      </c>
+      <c r="D33">
+        <v>0.06608777489877858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.003430964670610201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004227727064821714</v>
+      </c>
+      <c r="C34">
+        <v>0.05760448242658321</v>
+      </c>
+      <c r="D34">
+        <v>0.05892588255639087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0008875591422227929</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005272553222104771</v>
+      </c>
+      <c r="C35">
+        <v>0.04022367660514754</v>
+      </c>
+      <c r="D35">
+        <v>0.02145622566028569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005236372352779853</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001440152431778254</v>
+      </c>
+      <c r="C36">
+        <v>0.02450105396759306</v>
+      </c>
+      <c r="D36">
+        <v>0.02586592705460842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0001567516946405054</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009368308078112848</v>
+      </c>
+      <c r="C38">
+        <v>0.03790469007786061</v>
+      </c>
+      <c r="D38">
+        <v>0.01453002501744288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01309356096175326</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001386056249389458</v>
+      </c>
+      <c r="C39">
+        <v>0.1130908504140956</v>
+      </c>
+      <c r="D39">
+        <v>0.07751720755416859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008029564871794037</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003704599574907604</v>
+      </c>
+      <c r="C40">
+        <v>0.09005932971023935</v>
+      </c>
+      <c r="D40">
+        <v>0.02103279335949144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0007548634964607177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007297714715432917</v>
+      </c>
+      <c r="C41">
+        <v>0.03890112235845858</v>
+      </c>
+      <c r="D41">
+        <v>0.03980646029364138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002463274592451348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003940514538982505</v>
+      </c>
+      <c r="C43">
+        <v>0.0528355490212331</v>
+      </c>
+      <c r="D43">
+        <v>0.02815085781521423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.0137105547009557</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002920409762145105</v>
+      </c>
+      <c r="C44">
+        <v>0.1043343669207521</v>
+      </c>
+      <c r="D44">
+        <v>0.06998580148939662</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0007718197116842866</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001703124589782615</v>
+      </c>
+      <c r="C46">
+        <v>0.03257736046260832</v>
+      </c>
+      <c r="D46">
+        <v>0.03467033259661802</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001378441586117637</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002223458591684727</v>
+      </c>
+      <c r="C47">
+        <v>0.0349336728935953</v>
+      </c>
+      <c r="D47">
+        <v>0.02288181002590143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00320070253883982</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006608208781568635</v>
+      </c>
+      <c r="C48">
+        <v>0.03002210864744995</v>
+      </c>
+      <c r="D48">
+        <v>0.03693622621231489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.006699776939829085</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01763836685482664</v>
+      </c>
+      <c r="C49">
+        <v>0.1895484127265828</v>
+      </c>
+      <c r="D49">
+        <v>0.008187904245278842</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0003203901285395338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003661557456542454</v>
+      </c>
+      <c r="C50">
+        <v>0.04233005314997636</v>
+      </c>
+      <c r="D50">
+        <v>0.03919890903343513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0002740464321078419</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004989103924660615</v>
+      </c>
+      <c r="C51">
+        <v>0.02602736898080106</v>
+      </c>
+      <c r="D51">
+        <v>0.02217954878556729</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.002702515118787647</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.0214564083108551</v>
+      </c>
+      <c r="C53">
+        <v>0.1713741320813432</v>
+      </c>
+      <c r="D53">
+        <v>0.0228797379503199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.002051485160375801</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009074416123581902</v>
+      </c>
+      <c r="C54">
+        <v>0.05442503089131022</v>
+      </c>
+      <c r="D54">
+        <v>0.04392101515365665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003050667842875657</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009581949074556728</v>
+      </c>
+      <c r="C55">
+        <v>0.1074109653149169</v>
+      </c>
+      <c r="D55">
+        <v>0.04133940080508559</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.004881800463476165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02038422832244164</v>
+      </c>
+      <c r="C56">
+        <v>0.1755930656548677</v>
+      </c>
+      <c r="D56">
+        <v>0.0155327365484487</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.003309109755133065</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01915761825883015</v>
+      </c>
+      <c r="C58">
+        <v>0.1038949310619998</v>
+      </c>
+      <c r="D58">
+        <v>0.07366861640258772</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006594215821045058</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01068124507573721</v>
+      </c>
+      <c r="C59">
+        <v>0.169560826635844</v>
+      </c>
+      <c r="D59">
+        <v>-0.3403498130197132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.001544841954581216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02503234804698396</v>
+      </c>
+      <c r="C60">
+        <v>0.2251817785662968</v>
+      </c>
+      <c r="D60">
+        <v>0.02024568710054728</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01196793186165736</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001766653003346771</v>
+      </c>
+      <c r="C61">
+        <v>0.09428855490862353</v>
+      </c>
+      <c r="D61">
+        <v>0.05806616048235899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1550424939515678</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1493304381832735</v>
+      </c>
+      <c r="C62">
+        <v>0.09630086581403975</v>
+      </c>
+      <c r="D62">
+        <v>0.02659023728475123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0009881375319708025</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006431150326548544</v>
+      </c>
+      <c r="C63">
+        <v>0.05323001914764566</v>
+      </c>
+      <c r="D63">
+        <v>0.03260349812043941</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002473396508769172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01580815599106035</v>
+      </c>
+      <c r="C64">
+        <v>0.1046450075745823</v>
+      </c>
+      <c r="D64">
+        <v>0.05759622836029617</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.003289593997530644</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01781281426189548</v>
+      </c>
+      <c r="C65">
+        <v>0.1216606756931176</v>
+      </c>
+      <c r="D65">
+        <v>0.02758484335345182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.003365738054329894</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01352091530773492</v>
+      </c>
+      <c r="C66">
+        <v>0.1614223001949896</v>
+      </c>
+      <c r="D66">
+        <v>0.1082105553136596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002617096891340793</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01559313867122659</v>
+      </c>
+      <c r="C67">
+        <v>0.06984092516514256</v>
+      </c>
+      <c r="D67">
+        <v>0.02602800755740926</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005432974070341415</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.00147474387740215</v>
+      </c>
+      <c r="C68">
+        <v>0.08752724895415794</v>
+      </c>
+      <c r="D68">
+        <v>-0.2564956121287512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001082510415447643</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006435878925652635</v>
+      </c>
+      <c r="C69">
+        <v>0.05270723704740109</v>
+      </c>
+      <c r="D69">
+        <v>0.03742333039811785</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0007110126047632485</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001988440609863196</v>
+      </c>
+      <c r="C70">
+        <v>0.005875036458702002</v>
+      </c>
+      <c r="D70">
+        <v>0.0006776831196850171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0008247929205106071</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006190887128689447</v>
+      </c>
+      <c r="C71">
+        <v>0.09232694531950691</v>
+      </c>
+      <c r="D71">
+        <v>-0.3009664593999181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003420954104100662</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01654902888544424</v>
+      </c>
+      <c r="C72">
+        <v>0.1568771759312386</v>
+      </c>
+      <c r="D72">
+        <v>0.01279597527329336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.005334306687040962</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03171676763164005</v>
+      </c>
+      <c r="C73">
+        <v>0.2822295244214366</v>
+      </c>
+      <c r="D73">
+        <v>0.05630675616796414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005354450812696625</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002105385824174689</v>
+      </c>
+      <c r="C74">
+        <v>0.1015732246681204</v>
+      </c>
+      <c r="D74">
+        <v>0.03777965668282483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00329519614566346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01080000470303602</v>
+      </c>
+      <c r="C75">
+        <v>0.1222835692303986</v>
+      </c>
+      <c r="D75">
+        <v>0.02353322747750696</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008939159177978105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02245056526980771</v>
+      </c>
+      <c r="C76">
+        <v>0.1468947263174848</v>
+      </c>
+      <c r="D76">
+        <v>0.05954855784622074</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.000511365638903722</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02162920349177421</v>
+      </c>
+      <c r="C77">
+        <v>0.1133860087614518</v>
+      </c>
+      <c r="D77">
+        <v>0.0498842690846162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001407244612922265</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01496067334040346</v>
+      </c>
+      <c r="C78">
+        <v>0.09650459691036672</v>
+      </c>
+      <c r="D78">
+        <v>0.07989393450515747</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02279445806528946</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03846748561440037</v>
+      </c>
+      <c r="C79">
+        <v>0.1562523625507154</v>
+      </c>
+      <c r="D79">
+        <v>0.03262956677418636</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006904060832698648</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.010195097871411</v>
+      </c>
+      <c r="C80">
+        <v>0.03789587849053089</v>
+      </c>
+      <c r="D80">
+        <v>0.0311886209871283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001399118862442618</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01592820692898634</v>
+      </c>
+      <c r="C81">
+        <v>0.1298578639046124</v>
+      </c>
+      <c r="D81">
+        <v>0.03770703543815768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00525092802869383</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01991819187329281</v>
+      </c>
+      <c r="C82">
+        <v>0.1383788271854448</v>
+      </c>
+      <c r="D82">
+        <v>0.03902108138482337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.005050464072469905</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0109910325075142</v>
+      </c>
+      <c r="C83">
+        <v>0.0608778240492728</v>
+      </c>
+      <c r="D83">
+        <v>0.04702652127090027</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01121826364925374</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01212331836523519</v>
+      </c>
+      <c r="C84">
+        <v>0.03764885398024669</v>
+      </c>
+      <c r="D84">
+        <v>-0.00304066878705797</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01440979325435642</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02906257844901554</v>
+      </c>
+      <c r="C85">
+        <v>0.1242752924416953</v>
+      </c>
+      <c r="D85">
+        <v>0.04007140570587573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002968787096261531</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004305140557756324</v>
+      </c>
+      <c r="C86">
+        <v>0.05017541845484712</v>
+      </c>
+      <c r="D86">
+        <v>0.02740861429144714</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.002124919530068631</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01112055819140574</v>
+      </c>
+      <c r="C87">
+        <v>0.1272243408684421</v>
+      </c>
+      <c r="D87">
+        <v>0.07808106035069165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01067202877334564</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002919737676939366</v>
+      </c>
+      <c r="C88">
+        <v>0.06328496931336615</v>
+      </c>
+      <c r="D88">
+        <v>0.02690531308609269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01133064980660618</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001387961645073388</v>
+      </c>
+      <c r="C89">
+        <v>0.1402607449871759</v>
+      </c>
+      <c r="D89">
+        <v>-0.3182417485499788</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003287689797694324</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007173107698752214</v>
+      </c>
+      <c r="C90">
+        <v>0.1214590811759605</v>
+      </c>
+      <c r="D90">
+        <v>-0.3134549087246898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0002905186941360115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01043657003503271</v>
+      </c>
+      <c r="C91">
+        <v>0.09940294803779137</v>
+      </c>
+      <c r="D91">
+        <v>0.02489626021069673</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008380492871705177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001045989897511344</v>
+      </c>
+      <c r="C92">
+        <v>0.1350650840299531</v>
+      </c>
+      <c r="D92">
+        <v>-0.3218217766979947</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002647777611860881</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004617530349660373</v>
+      </c>
+      <c r="C93">
+        <v>0.1059101998745317</v>
+      </c>
+      <c r="D93">
+        <v>-0.2981152655143423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003494962555605154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02147868679779548</v>
+      </c>
+      <c r="C94">
+        <v>0.1421647829412938</v>
+      </c>
+      <c r="D94">
+        <v>0.053390845788506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.001609896635931301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01669039001393894</v>
+      </c>
+      <c r="C95">
+        <v>0.1218409064850208</v>
+      </c>
+      <c r="D95">
+        <v>0.06478169361850687</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.007078516524800466</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03710718966081283</v>
+      </c>
+      <c r="C97">
+        <v>0.22593194300486</v>
+      </c>
+      <c r="D97">
+        <v>0.002203388003729924</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004355615330964792</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03766303578665936</v>
+      </c>
+      <c r="C98">
+        <v>0.2567276155859075</v>
+      </c>
+      <c r="D98">
+        <v>0.03297081775078284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9860700982864026</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9812550956917037</v>
+      </c>
+      <c r="C99">
+        <v>-0.1203955595181828</v>
+      </c>
+      <c r="D99">
+        <v>-0.02364506054737353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008544673814555189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002675906221468387</v>
+      </c>
+      <c r="C101">
+        <v>0.04837207670668799</v>
+      </c>
+      <c r="D101">
+        <v>0.010537301219854</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
